--- a/services/flask/app/utils/tugs_scheduler.xlsx
+++ b/services/flask/app/utils/tugs_scheduler.xlsx
@@ -650,7 +650,7 @@
           <t>4/12/2020</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>26/02/2021</t>
         </is>

--- a/services/flask/app/utils/tugs_scheduler.xlsx
+++ b/services/flask/app/utils/tugs_scheduler.xlsx
@@ -475,22 +475,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>R-DM</t>
+          <t>R-CT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>REM. DOÑA MARIA</t>
+          <t>REM. CANCHARAZO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19/01/2020</t>
+          <t>20/03/2020</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>16/02/2020</t>
+          <t>17/04/2020</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -517,34 +517,34 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>17/04/2020</t>
+          <t>12/06/2020</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Disinfection</t>
+          <t>Fumigation</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>R-FE</t>
+          <t>R-DM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>REM. FCO ESTRADA</t>
+          <t>REM. DOÑA MARIA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>21/03/2020</t>
+          <t>30/11/2020</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18/04/2020</t>
+          <t>28/12/2020</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -556,265 +556,265 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>R-ST</t>
+          <t>R-DM</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>REM. SOTARA</t>
+          <t>REM. DOÑA MARIA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>30/03/2020</t>
+          <t>19/10/2020</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27/04/2020</t>
+          <t>11/01/2021</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Disinfection</t>
+          <t>Fumigation</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>R-CT</t>
+          <t>O-CG</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>REM. CANCHARAZO</t>
+          <t>OFICINA CARTAGENA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>20/03/2020</t>
+          <t>4/03/2021</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12/06/2020</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fumigation</t>
+          <t>Disinfection</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>R-DM</t>
+          <t>R-FE</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>REM. DOÑA MARIA</t>
+          <t>REM. FCO ESTRADA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19/10/2020</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>11/01/2021</t>
+          <t>20/03/2021</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>17/04/2021</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fumigation</t>
+          <t>Disinfection</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>O-CG</t>
+          <t>R-PJ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OFICINA CARTAGENA</t>
+          <t>REM. PERIJA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4/12/2020</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>26/02/2021</t>
+          <t>20/03/2021</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>17/04/2021</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fumigation</t>
+          <t>Disinfection</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>R-AM</t>
+          <t>R-TD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>REM. AMONTILLA</t>
+          <t>REM. TOLEDO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11/12/2020</t>
+          <t>20/03/2021</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>05/03/2021</t>
+          <t>17/04/2021</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Fumigation</t>
+          <t>Disinfection</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>R-FE</t>
+          <t>R-ST</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>REM. FCO ESTRADA</t>
+          <t>REM. SOTARA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21/12/2020</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>15/03/2021</t>
+          <t>20/04/2021</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Fumigation</t>
+          <t>Disinfection</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>R-HM</t>
+          <t>R-AM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>REM. HMUÑOZ</t>
+          <t>REM. AMONTILLA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>28/12/2020</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>22/03/2021</t>
+          <t>20/04/2021</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Fumigation</t>
+          <t>Disinfection</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>R-ST</t>
+          <t>R-DL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>REM. SOTARA</t>
+          <t>REM. DOÑA LEONOR</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>30/12/2020</t>
+          <t>30/03/2021</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>24/03/2021</t>
+          <t>27/04/2021</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fumigation</t>
+          <t>Disinfection</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>O-CG</t>
+          <t>R-CT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OFICINA CARTAGENA</t>
+          <t>REM. CATALINA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4/03/2021</t>
+          <t>2/02/2021</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>27/04/2021</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Disinfection</t>
+          <t>Fumigation</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>R-AM</t>
+          <t>R-HM</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>REM. AMONTILLA</t>
+          <t>REM. HMUÑOZ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11/03/2021</t>
+          <t>30/03/2021</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>08/04/2021</t>
+          <t>27/04/2021</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -826,22 +826,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R-HM</t>
+          <t>R-CT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>REM. HMUÑOZ</t>
+          <t>REM. CATALINA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>28/03/2021</t>
+          <t>3/04/2021</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>25/04/2021</t>
+          <t>01/05/2021</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -853,22 +853,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>R-CT</t>
+          <t>R-DL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>REM. CATALINA</t>
+          <t>REM. DOÑA LEONOR</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2/02/2021</t>
+          <t>16/02/2021</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>27/04/2021</t>
+          <t>11/05/2021</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -880,12 +880,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>R-DL</t>
+          <t>R-PJ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>REM. DOÑA LEONOR</t>
+          <t>REM. PERIJA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -907,12 +907,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>R-PJ</t>
+          <t>R-TD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>REM. PERIJA</t>
+          <t>REM. TOLEDO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -934,22 +934,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>R-TD</t>
+          <t>O-CG</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>REM. TOLEDO</t>
+          <t>OFICINA CARTAGENA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16/02/2021</t>
+          <t>19/03/2021</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>11/05/2021</t>
+          <t>11/06/2021</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -961,108 +961,108 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>R-CT</t>
+          <t>R-ST</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>REM. CATALINA</t>
+          <t>REM. SOTARA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2/05/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>30/05/2021</t>
+          <t>15/06/2021</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Disinfection</t>
+          <t>Fumigation</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>R-DL</t>
+          <t>R-AM</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>REM. DOÑA LEONOR</t>
+          <t>REM. AMONTILLA</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16/05/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>13/06/2021</t>
+          <t>15/06/2021</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Disinfection</t>
+          <t>Fumigation</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>R-PJ</t>
+          <t>R-FE</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>REM. PERIJA</t>
+          <t>REM. FCO ESTRADA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16/05/2021</t>
+          <t>29/03/2021</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>13/06/2021</t>
+          <t>21/06/2021</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Disinfection</t>
+          <t>Fumigation</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>R-TD</t>
+          <t>R-HM</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>REM. TOLEDO</t>
+          <t>REM. HMUÑOZ</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16/05/2021</t>
+          <t>30/03/2021</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>13/06/2021</t>
+          <t>22/06/2021</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Disinfection</t>
+          <t>Fumigation</t>
         </is>
       </c>
     </row>
